--- a/output/below_50/tRNA-Thr-CGT-1-1.xlsx
+++ b/output/below_50/tRNA-Thr-CGT-1-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="85">
   <si>
     <t>chr6</t>
   </si>
@@ -267,183 +267,6 @@
   </si>
   <si>
     <t>3.49269E+11</t>
-  </si>
-  <si>
-    <t>28457036</t>
-  </si>
-  <si>
-    <t>28457059</t>
-  </si>
-  <si>
-    <t>28457039</t>
-  </si>
-  <si>
-    <t>CTTTCTGTAATGCTCTTTCT</t>
-  </si>
-  <si>
-    <t>4% (24)</t>
-  </si>
-  <si>
-    <t>10% (22)</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 38, Doench 2016: 4%, Moreno-Mateos: 10%</t>
-  </si>
-  <si>
-    <t>2.36511E+11</t>
-  </si>
-  <si>
-    <t>28457115</t>
-  </si>
-  <si>
-    <t>28457138</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>28457118</t>
-  </si>
-  <si>
-    <t>GAGTGACTTTCAAGATTCAA</t>
-  </si>
-  <si>
-    <t>56% (52)</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 16, Doench 2016: 56%, Moreno-Mateos: 41%</t>
-  </si>
-  <si>
-    <t>3.83704E+11</t>
-  </si>
-  <si>
-    <t>28457160</t>
-  </si>
-  <si>
-    <t>28457183</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>28457180</t>
-  </si>
-  <si>
-    <t>AAATTTATCAGAGAAGGAAC</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 46, Doench 2016: 56%, Moreno-Mateos: 35%</t>
-  </si>
-  <si>
-    <t>8249910995</t>
-  </si>
-  <si>
-    <t>28457310</t>
-  </si>
-  <si>
-    <t>28457333</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>28457330</t>
-  </si>
-  <si>
-    <t>GGGGCCTCTCAGGAGGGGTG</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>23% (40)</t>
-  </si>
-  <si>
-    <t>97% (81)</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 28, Doench 2016: 23%, Moreno-Mateos: 97%</t>
-  </si>
-  <si>
-    <t>1.07191E+11</t>
-  </si>
-  <si>
-    <t>28457318</t>
-  </si>
-  <si>
-    <t>28457341</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>28457338</t>
-  </si>
-  <si>
-    <t>TCAGGAGGGGTGCGGAGGTG</t>
-  </si>
-  <si>
-    <t>5% (26)</t>
-  </si>
-  <si>
-    <t>98% (87)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 42, Doench 2016: 5%, Moreno-Mateos: 98%</t>
-  </si>
-  <si>
-    <t>1.62118E+11</t>
-  </si>
-  <si>
-    <t>28457319</t>
-  </si>
-  <si>
-    <t>28457342</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>28457339</t>
-  </si>
-  <si>
-    <t>CAGGAGGGGTGCGGAGGTGG</t>
-  </si>
-  <si>
-    <t>14% (35)</t>
-  </si>
-  <si>
-    <t>100% (112)</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 23, Doench 2016: 14%, Moreno-Mateos: 100%</t>
-  </si>
-  <si>
-    <t>1.56159E+11</t>
   </si>
 </sst>
 </file>
@@ -488,7 +311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -966,360 +789,6 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>88</v>
-      </c>
-      <c r="L9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" t="s">
-        <v>89</v>
-      </c>
-      <c r="O9" t="s">
-        <v>90</v>
-      </c>
-      <c r="P9" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>92</v>
-      </c>
-      <c r="R9" t="s">
-        <v>93</v>
-      </c>
-      <c r="S9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" t="s">
-        <v>97</v>
-      </c>
-      <c r="N10" t="s">
-        <v>100</v>
-      </c>
-      <c r="O10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>101</v>
-      </c>
-      <c r="R10" t="s">
-        <v>102</v>
-      </c>
-      <c r="S10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" t="s">
-        <v>106</v>
-      </c>
-      <c r="N11" t="s">
-        <v>100</v>
-      </c>
-      <c r="O11" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>110</v>
-      </c>
-      <c r="R11" t="s">
-        <v>111</v>
-      </c>
-      <c r="S11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>117</v>
-      </c>
-      <c r="L12" t="s">
-        <v>118</v>
-      </c>
-      <c r="M12" t="s">
-        <v>115</v>
-      </c>
-      <c r="N12" t="s">
-        <v>119</v>
-      </c>
-      <c r="O12" t="s">
-        <v>120</v>
-      </c>
-      <c r="P12" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>122</v>
-      </c>
-      <c r="R12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>129</v>
-      </c>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" t="s">
-        <v>127</v>
-      </c>
-      <c r="N13" t="s">
-        <v>130</v>
-      </c>
-      <c r="O13" t="s">
-        <v>131</v>
-      </c>
-      <c r="P13" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>47</v>
-      </c>
-      <c r="R13" t="s">
-        <v>132</v>
-      </c>
-      <c r="S13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14" t="s">
-        <v>137</v>
-      </c>
-      <c r="H14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" t="s">
-        <v>138</v>
-      </c>
-      <c r="L14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" t="s">
-        <v>136</v>
-      </c>
-      <c r="N14" t="s">
-        <v>139</v>
-      </c>
-      <c r="O14" t="s">
-        <v>140</v>
-      </c>
-      <c r="P14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>141</v>
-      </c>
-      <c r="R14" t="s">
-        <v>142</v>
-      </c>
-      <c r="S14" t="s">
-        <v>143</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
